--- a/biology/Biologie cellulaire et moléculaire/TRAF6/TRAF6.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/TRAF6/TRAF6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La protéine TRAF6, de l'anglais TNF receptor-associated factor 6, est codée chez l'homme par le gène TRAF6, situé sur le chromosome 11[3]. Elle appartient à la famille des facteurs associés aux récepteurs de TNF (TRAF).
+La protéine TRAF6, de l'anglais TNF receptor-associated factor 6, est codée chez l'homme par le gène TRAF6, situé sur le chromosome 11. Elle appartient à la famille des facteurs associés aux récepteurs de TNF (TRAF).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il active les récepteurs au TNF ainsi qu'à ceux de l'interleukine 1. Il participe ainsi  à l'immunité (en particulier dans la maturation des cellules dendritiques[4]), au métabolisme osseux[5], au développement des ganglions lymphatiques, des glandes mammaires, de la peau et du système nerveux central[6]. 
-Il possède une activité d'ubiquitine ligase permettant son auto ubiquitination permettant l'activation de IKK  en réponse à l'interleukine 1[7]. Il ubiquitinise également le système AKT, permettant son activation[8].
-Il active le PAX7 par la voie du MAPK ERK1/2 et JNK1/2[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il active les récepteurs au TNF ainsi qu'à ceux de l'interleukine 1. Il participe ainsi  à l'immunité (en particulier dans la maturation des cellules dendritiques), au métabolisme osseux, au développement des ganglions lymphatiques, des glandes mammaires, de la peau et du système nerveux central. 
+Il possède une activité d'ubiquitine ligase permettant son auto ubiquitination permettant l'activation de IKK  en réponse à l'interleukine 1. Il ubiquitinise également le système AKT, permettant son activation.
+Il active le PAX7 par la voie du MAPK ERK1/2 et JNK1/2.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son activation contribue à la cachexie musculaire[10]. Il pourrait également intervenir dans l'atteinte musculaire de la myopathie de Duchenne[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son activation contribue à la cachexie musculaire. Il pourrait également intervenir dans l'atteinte musculaire de la myopathie de Duchenne.
 </t>
         </is>
       </c>
